--- a/dataneeded.xlsx
+++ b/dataneeded.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
   <si>
     <t>Basic Information</t>
   </si>
@@ -152,6 +152,9 @@
   </si>
   <si>
     <t>P.S. While dealing with QS and THE World University Rankings, we need to extract colleges in the US and record their international ranking, then sort nationally.</t>
+  </si>
+  <si>
+    <t>SAT/ACT scores must be received by</t>
   </si>
 </sst>
 </file>
@@ -523,7 +526,7 @@
   <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -573,10 +576,13 @@
       <c r="E2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G2" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="H2" s="3" t="s">
         <v>25</v>
       </c>
     </row>

--- a/dataneeded.xlsx
+++ b/dataneeded.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/AaronC/Desktop/CS5610/Project/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/AaronC/Desktop/CS5610/Project/university_project/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
   <si>
     <t>Basic Information</t>
   </si>
@@ -155,6 +155,12 @@
   </si>
   <si>
     <t>SAT/ACT scores must be received by</t>
+  </si>
+  <si>
+    <t>International Student financial aid(boolean)</t>
+  </si>
+  <si>
+    <t>International Ratio(Integer)</t>
   </si>
 </sst>
 </file>
@@ -523,10 +529,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:I17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -537,13 +543,13 @@
     <col min="4" max="4" width="30.83203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="35.33203125" customWidth="1"/>
     <col min="6" max="6" width="24.83203125" customWidth="1"/>
-    <col min="7" max="7" width="50.5" customWidth="1"/>
+    <col min="7" max="7" width="31.5" customWidth="1"/>
     <col min="8" max="8" width="19.83203125" customWidth="1"/>
     <col min="9" max="9" width="15.33203125" customWidth="1"/>
     <col min="10" max="10" width="18.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -560,7 +566,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -586,7 +592,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -596,8 +602,11 @@
       <c r="C3" s="2" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="D3" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -622,8 +631,11 @@
       <c r="H4" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I4" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>27</v>
       </c>
@@ -636,43 +648,43 @@
       <c r="D5" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>5</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C6" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B10" s="3"/>
       <c r="C10" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B11" s="2"/>
       <c r="C11" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B12" s="1"/>
       <c r="C12" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B13" s="4"/>
       <c r="C13" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B14" s="6"/>
       <c r="C14" t="s">
         <v>34</v>
